--- a/01.設計書/01.テーブル定義書/M2_商品マスタ.xlsx
+++ b/01.設計書/01.テーブル定義書/M2_商品マスタ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7830"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="4" r:id="rId1"/>
@@ -564,19 +564,46 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -598,33 +625,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -967,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1102,13 +1102,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
@@ -1117,100 +1117,100 @@
     <col min="7" max="7" width="6.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="17"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="14" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="18"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
